--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1493574.988598467</v>
+        <v>1495898.660412335</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5893787.977239866</v>
+        <v>5893787.977239868</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>53.51252900994975</v>
@@ -674,13 +676,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>35.18454619735122</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.892417739585678</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>215.5717580809477</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.17354161800005</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>80.15944383584242</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>241.0142888776591</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>37.30774762124425</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>134.667568689459</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>216.6999729388017</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1607,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>135.4132168533396</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>152.9063151287279</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>108.1960350243787</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G17" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1944,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2044,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2144,10 +2146,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>22.53500625286611</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>22.53539329780097</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>136.2074941398002</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -2415,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>5.963519943866402</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>121.9333552767668</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,55 +2712,55 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>33.80371536444976</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,16 +2921,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>17.37254956828078</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
     </row>
     <row r="31">
@@ -2962,19 +2964,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3032,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3126,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>72.13025939403256</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>65.05504153722171</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>62.13484214871502</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>38.45935016089103</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>6.619864944732362</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.2798198028455262</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,55 +3672,55 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3746,64 +3748,64 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>19.15541836171557</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3870,16 +3872,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3895,64 +3897,64 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,25 +4061,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>89.98138655216529</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>46.51582335227891</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4147,46 +4149,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C2" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="D2" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="E2" t="n">
-        <v>112.3871215328157</v>
+        <v>214.050116039799</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4373,7 +4375,7 @@
         <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="O3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O3" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V3" t="n">
-        <v>113.1412541856014</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W3" t="n">
-        <v>59.08819457959154</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="W4" t="n">
-        <v>84.76023320505688</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="X4" t="n">
-        <v>30.70717359904702</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.70717359904702</v>
+        <v>27.95824356358591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4600,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>772.0302844130649</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>772.0302844130649</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>528.5815077689649</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>285.1327311248648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.68395448076474</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>290.2572196227447</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>148.0194984626543</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>148.0194984626543</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>148.0194984626543</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0631229240681</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>156.0631229240681</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="T12" t="n">
-        <v>689.4702815141908</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="U12" t="n">
-        <v>689.4702815141908</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>841.9057755225589</v>
       </c>
     </row>
     <row r="13">
@@ -5194,7 +5196,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5255,25 +5257,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>641.3909951282167</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C15" t="n">
-        <v>466.9379658470897</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D15" t="n">
-        <v>318.0035561858384</v>
+        <v>156.0621702347982</v>
       </c>
       <c r="E15" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M15" t="n">
         <v>304.2053859195205</v>
@@ -5385,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>809.6063321482848</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>809.6063321482848</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>809.6063321482848</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>809.6063321482848</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X15" t="n">
-        <v>809.6063321482848</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y15" t="n">
-        <v>809.6063321482848</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="16">
@@ -5455,7 +5457,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
         <v>41.77557929797318</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C17" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D17" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E17" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F17" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X17" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y17" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5637,7 +5639,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,13 +5694,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.7766548071333</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C20" t="n">
-        <v>325.7766548071333</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D20" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>325.7766548071333</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.7766548071333</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>223.7040404982626</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>223.7040404982626</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>666.7076489355381</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>666.7076489355381</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>431.5555407037955</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>431.5555407037955</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X21" t="n">
-        <v>223.7040404982626</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.7040404982626</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5937,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5966,16 +5968,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6025,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8949250843803</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C24" t="n">
-        <v>248.3115976704407</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D24" t="n">
-        <v>248.3115976704407</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E24" t="n">
-        <v>248.3115976704407</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>248.3115976704407</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,13 +6074,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N24" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N24" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>958.0333979915792</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>755.8468033503452</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>755.8468033503452</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>755.8468033503452</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>512.3980267062451</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.1102621044483</v>
+        <v>304.5465265007123</v>
       </c>
     </row>
     <row r="25">
@@ -6175,7 +6177,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6309,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>929.9119884758385</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S29" t="n">
-        <v>718.7806050553886</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>845.3395961965716</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>845.3395961965716</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>617.1159779329607</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>617.1159779329607</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>373.6672012888606</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X30" t="n">
-        <v>165.8157010833278</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6610,16 +6612,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K31" t="n">
         <v>829.5248650203655</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>40.6788758079141</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y32" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>252.1315786412141</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C33" t="n">
-        <v>252.1315786412141</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>252.1315786412141</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>92.8941236357586</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>92.8941236357586</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>92.8941236357586</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>92.8941236357586</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6785,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>898.3449923417254</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V33" t="n">
-        <v>252.1315786412141</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W33" t="n">
-        <v>252.1315786412141</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X33" t="n">
-        <v>252.1315786412141</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y33" t="n">
-        <v>252.1315786412141</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>453.6378659568754</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>279.1848366757484</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D36" t="n">
-        <v>279.1848366757484</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E36" t="n">
-        <v>279.1848366757484</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>621.8532029769435</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>621.8532029769435</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>621.8532029769435</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>621.8532029769435</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.8532029769435</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>655.1273272985679</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="C39" t="n">
-        <v>480.6742980174409</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="D39" t="n">
-        <v>331.7398883561897</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="E39" t="n">
-        <v>172.5024333507342</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="F39" t="n">
-        <v>25.96787537761915</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.31792202849897</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.31792202849897</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.1273272985679</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7518,22 +7520,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="43">
@@ -7600,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C44" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D44" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E44" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F44" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G44" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>619.4388494194218</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="C45" t="n">
-        <v>444.9858201382948</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="D45" t="n">
-        <v>296.0514104770435</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="E45" t="n">
-        <v>296.0514104770435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>296.0514104770435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>157.320585059659</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X45" t="n">
-        <v>619.4388494194218</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y45" t="n">
-        <v>619.4388494194218</v>
+        <v>284.6244618379714</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9255,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>229.6373335557741</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,16 +9722,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10433,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>393.4483115052977</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>50.75330491564127</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,13 +23396,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>16.10061421062358</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23495,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>22.23186360206134</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,7 +23627,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>47.25841356609368</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>69.0973563527908</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G17" t="n">
-        <v>374.8264583819999</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23789,13 +23791,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23832,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>60.23598749168875</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23932,16 +23934,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E20" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>177.6297224419555</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>183.1473024795034</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24263,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>36.50100484851558</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24333,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>165.7196511599714</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24415,10 +24417,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24494,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>83.83962992671064</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,22 +24727,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>116.0654025766999</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24807,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>154.310621535557</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>50.1001388840902</v>
       </c>
     </row>
     <row r="31">
@@ -24850,19 +24852,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24920,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>385.6922903709871</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25014,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>17.26637345738251</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>135.1096871575999</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>27.26179070270006</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>187.4820319200838</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25397,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>130.7236522184783</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>89.11681304856955</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25634,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>118.1880988014951</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25758,16 +25760,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25947,25 +25949,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>67.66369390323565</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>65.71962088421755</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382407.7266023519</v>
+        <v>382407.726602352</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>382407.7266023519</v>
+        <v>382407.726602352</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382407.7266023519</v>
+        <v>382407.726602352</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382407.7266023519</v>
+        <v>382407.726602352</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
@@ -26323,7 +26325,7 @@
         <v>232624.9415438654</v>
       </c>
       <c r="F2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="G2" t="n">
         <v>232624.9415438654</v>
@@ -26332,25 +26334,25 @@
         <v>232624.9415438653</v>
       </c>
       <c r="I2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="J2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="L2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="M2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="N2" t="n">
         <v>232624.9415438653</v>
       </c>
       <c r="O2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="P2" t="n">
         <v>232624.9415438654</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26418,7 +26420,7 @@
         <v>354071.2011411577</v>
       </c>
       <c r="C4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
         <v>312595.3744187171</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165843.5967406347</v>
+        <v>165843.5967406346</v>
       </c>
       <c r="C6" t="n">
-        <v>153276.2735358512</v>
+        <v>153276.2735358514</v>
       </c>
       <c r="D6" t="n">
         <v>213852.5957225196</v>
@@ -26531,34 +26533,34 @@
         <v>184321.425995846</v>
       </c>
       <c r="F6" t="n">
-        <v>184321.4259958461</v>
+        <v>184321.4259958459</v>
       </c>
       <c r="G6" t="n">
         <v>184321.425995846</v>
       </c>
       <c r="H6" t="n">
+        <v>184321.4259958459</v>
+      </c>
+      <c r="I6" t="n">
         <v>184321.425995846</v>
-      </c>
-      <c r="I6" t="n">
-        <v>184321.4259958459</v>
       </c>
       <c r="J6" t="n">
         <v>170320.1938555667</v>
       </c>
       <c r="K6" t="n">
-        <v>136064.4730622133</v>
+        <v>136064.4730622134</v>
       </c>
       <c r="L6" t="n">
         <v>184321.425995846</v>
       </c>
       <c r="M6" t="n">
-        <v>184321.4259958459</v>
+        <v>184321.425995846</v>
       </c>
       <c r="N6" t="n">
         <v>184321.425995846</v>
       </c>
       <c r="O6" t="n">
-        <v>184321.4259958459</v>
+        <v>184321.4259958461</v>
       </c>
       <c r="P6" t="n">
         <v>184321.425995846</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>328.417841062312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>353.3635167317617</v>
@@ -27394,13 +27396,13 @@
         <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>304.2902559184159</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1041031040899</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>124.5493355518741</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>198.1824541509698</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.9395624423516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>69.91871128631075</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>191.3042876607638</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>61.23905052124093</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>130.3164457345635</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>10.33136403017744</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,13 +27934,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>74.92769661525222</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>71.01512708784537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28032,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35185,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495898.660412335</v>
+        <v>1427047.363970897</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404856</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5893787.977239868</v>
+        <v>5893787.977239866</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>35.18454619735122</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>53.51252900994975</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
     </row>
     <row r="3">
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>47.13383555196375</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.892417739585685</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.44046883036203</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>215.5717580809477</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>158.9768736825223</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>80.15944383584242</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>37.30774762124425</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>117.4839910182655</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726842</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>120.9298661881966</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>43.23949238060717</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,67 +1609,67 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.4132168533396</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>89.66547645067541</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>230.153951547179</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2219,16 +2219,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>22.53539329780097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,67 +2317,67 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>5.963519943866402</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="28">
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2970,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>65.05504153722171</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3347,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>62.13484214871502</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3435,52 +3435,52 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1.809496073036188</v>
-      </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2798198028455262</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3644,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>89.98138655216529</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>159.9970564337892</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>105.9439968277793</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
         <v>70.40405117388919</v>
@@ -4339,10 +4339,10 @@
         <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>55.11790488024824</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11790488024824</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4436,25 +4436,25 @@
         <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>112.3871215328157</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3871215328157</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="U3" t="n">
-        <v>112.3871215328157</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="V3" t="n">
-        <v>112.3871215328157</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="W3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>27.95824356358591</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="D4" t="n">
-        <v>27.95824356358591</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>27.95824356358591</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>27.95824356358591</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>27.95824356358591</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>27.95824356358591</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
-        <v>27.95824356358591</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.95824356358591</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F5" t="n">
-        <v>502.8591282797204</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="7">
@@ -4767,7 +4767,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
         <v>41.77557929797318</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>115.7075889192809</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>100.2502782979324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>100.2502782979324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>481.7099827492369</v>
+        <v>433.7223438482202</v>
       </c>
       <c r="C9" t="n">
-        <v>307.2569534681098</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D9" t="n">
-        <v>307.2569534681098</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>148.0194984626543</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>148.0194984626543</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>148.0194984626543</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>845.3864575123882</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>601.9376808682882</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>601.9376808682882</v>
       </c>
       <c r="Y9" t="n">
-        <v>481.7099827492369</v>
+        <v>601.9376808682882</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>874.2758585542716</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>752.9257720901863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>841.9057755225589</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C12" t="n">
-        <v>667.4527462414319</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5123,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>841.9057755225589</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>841.9057755225589</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U12" t="n">
-        <v>841.9057755225589</v>
+        <v>617.0247764923818</v>
       </c>
       <c r="V12" t="n">
-        <v>841.9057755225589</v>
+        <v>617.0247764923818</v>
       </c>
       <c r="W12" t="n">
-        <v>841.9057755225589</v>
+        <v>373.5759998482816</v>
       </c>
       <c r="X12" t="n">
-        <v>841.9057755225589</v>
+        <v>373.5759998482816</v>
       </c>
       <c r="Y12" t="n">
-        <v>841.9057755225589</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5238,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>156.0621702347982</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5363,19 +5363,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W15" t="n">
-        <v>720.6083788665362</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X15" t="n">
-        <v>512.7568786610034</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y15" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5515,7 +5515,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5551,16 +5551,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="V17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="19">
@@ -5694,22 +5694,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>72.23626279480629</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C20" t="n">
-        <v>72.23626279480629</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
-        <v>315.6850394389064</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5837,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>533.6469426057913</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5937,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6074,13 +6074,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>958.0333979915792</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>755.8468033503452</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>755.8468033503452</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>755.8468033503452</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>512.3980267062451</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>304.5465265007123</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6180,10 +6180,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="27">
@@ -6311,43 +6311,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="30">
@@ -6545,46 +6545,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>176.4352409821462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>898.3449923417254</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>670.1213740781145</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>670.1213740781145</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>670.1213740781145</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>670.1213740781145</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.1213740781145</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>159.0487474458835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>159.0487474458835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>159.0487474458835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>159.0487474458835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>159.0487474458835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.31792202849897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.31792202849897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>327.2640844659515</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>327.2640844659515</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7368,7 +7368,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7432,28 +7432,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V41" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W41" t="n">
-        <v>251.810259228364</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y41" t="n">
         <v>19.28114311021272</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>346.8019152129958</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>197.8675055517446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7493,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>284.6244618379714</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>110.1714325568443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>110.1714325568443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7730,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7763,16 +7763,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>492.3847606029253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>492.3847606029253</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>284.6244618379714</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7836,13 +7836,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7987,13 +7987,13 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8537,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,10 +8780,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9011,10 +9011,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9722,16 +9722,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>393.4483115052977</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>50.75330491564127</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>182.7018897003676</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23551,13 +23551,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>22.23186360206134</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>116.0172193266289</v>
       </c>
     </row>
     <row r="16">
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23791,13 +23791,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>21.54103161374061</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>302.2574731329353</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>183.1473024795034</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24296,10 +24296,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24335,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>165.7196511599714</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24420,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24496,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="28">
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,19 +24727,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.1001388840902</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24858,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25049,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>135.1096871575999</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25235,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>27.26179070270006</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>337.6653060427309</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.11681304856955</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25608,10 +25608,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>283.8997115633647</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>118.1880988014951</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>67.66369390323565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382407.726602352</v>
+        <v>382407.7266023519</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382407.726602352</v>
+        <v>382407.7266023519</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>382407.726602352</v>
+        <v>382407.7266023519</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382407.726602352</v>
+        <v>382407.7266023519</v>
       </c>
     </row>
     <row r="14">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
@@ -26328,7 +26328,7 @@
         <v>232624.9415438653</v>
       </c>
       <c r="G2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="H2" t="n">
         <v>232624.9415438653</v>
@@ -26340,19 +26340,19 @@
         <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="L2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="M2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="N2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="O2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="P2" t="n">
         <v>232624.9415438654</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165843.5967406346</v>
+        <v>165843.5967406342</v>
       </c>
       <c r="C6" t="n">
-        <v>153276.2735358514</v>
+        <v>153276.2735358515</v>
       </c>
       <c r="D6" t="n">
         <v>213852.5957225196</v>
       </c>
       <c r="E6" t="n">
-        <v>184321.425995846</v>
+        <v>172103.4153758055</v>
       </c>
       <c r="F6" t="n">
-        <v>184321.4259958459</v>
+        <v>172103.4153758055</v>
       </c>
       <c r="G6" t="n">
-        <v>184321.425995846</v>
+        <v>172103.4153758055</v>
       </c>
       <c r="H6" t="n">
-        <v>184321.4259958459</v>
+        <v>172103.4153758055</v>
       </c>
       <c r="I6" t="n">
-        <v>184321.425995846</v>
+        <v>172103.4153758055</v>
       </c>
       <c r="J6" t="n">
-        <v>170320.1938555667</v>
+        <v>158102.1832355262</v>
       </c>
       <c r="K6" t="n">
-        <v>136064.4730622134</v>
+        <v>123846.4624421728</v>
       </c>
       <c r="L6" t="n">
-        <v>184321.425995846</v>
+        <v>172103.4153758055</v>
       </c>
       <c r="M6" t="n">
-        <v>184321.425995846</v>
+        <v>172103.4153758055</v>
       </c>
       <c r="N6" t="n">
-        <v>184321.425995846</v>
+        <v>172103.4153758056</v>
       </c>
       <c r="O6" t="n">
-        <v>184321.4259958461</v>
+        <v>172103.4153758055</v>
       </c>
       <c r="P6" t="n">
-        <v>184321.425995846</v>
+        <v>172103.4153758056</v>
       </c>
     </row>
   </sheetData>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>304.2902559184159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>156.9633605604562</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27438,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>383.2228749300937</v>
       </c>
     </row>
     <row r="3">
@@ -27466,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>124.5493355518741</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>153.7774844691157</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>144.7230552786267</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>69.91871128631075</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>191.3042876607638</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27697,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>13.73162530579347</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27754,10 +27754,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>154.522208511831</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>130.3164457345635</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27949,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>74.92769661525222</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>115.3165961311598</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35500,10 +35500,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36442,16 +36442,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36679,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37320,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
